--- a/AIML (4).xlsx
+++ b/AIML (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAVEEN M\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9268BA-0EDF-4F98-B5B1-EED4EE879AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B43319-0EF0-4F59-98F6-4E4D6A77003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,6 @@
     <t>Net charge -pH:7</t>
   </si>
   <si>
-    <t>solubilty</t>
-  </si>
-  <si>
     <t>Good water solubility</t>
   </si>
   <si>
@@ -1513,6 +1510,9 @@
   </si>
   <si>
     <t>DOI:10.1031/acs.jafc.1c03451</t>
+  </si>
+  <si>
+    <t>solubility</t>
   </si>
 </sst>
 </file>
@@ -1655,11 +1655,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1944,7 +1944,7 @@
   <dimension ref="A1:K400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>202</v>
@@ -1978,7 +1978,7 @@
         <v>199</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>201</v>
@@ -1990,7 +1990,7 @@
         <v>203</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>204</v>
+        <v>495</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2023,7 +2023,7 @@
         <v>-0.1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -2056,7 +2056,7 @@
         <v>-1.9</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -2089,7 +2089,7 @@
         <v>-2</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>-2</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -2155,7 +2155,7 @@
         <v>-1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -2188,7 +2188,7 @@
         <v>-0.9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -2214,20 +2214,20 @@
       <c r="G8" s="6">
         <v>-176.12</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>193</v>
       </c>
       <c r="I8" s="6">
         <v>-2</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B9" s="6">
         <v>1190.3499999999999</v>
@@ -2248,13 +2248,13 @@
         <v>-195.51</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I9" s="6">
         <v>-0.24</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2287,7 +2287,7 @@
         <v>-4</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K10" s="5"/>
     </row>
@@ -2320,7 +2320,7 @@
         <v>-4</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -2353,7 +2353,7 @@
         <v>-1.9</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -2386,7 +2386,7 @@
         <v>-0.9</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -2419,7 +2419,7 @@
         <v>-2</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2452,7 +2452,7 @@
         <v>-2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -2485,7 +2485,7 @@
         <v>-0.9</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -2518,7 +2518,7 @@
         <v>-2</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -2551,7 +2551,7 @@
         <v>-1.8</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -2617,7 +2617,7 @@
         <v>-1.9</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -2650,7 +2650,7 @@
         <v>-2</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -2683,7 +2683,7 @@
         <v>-1</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -2716,7 +2716,7 @@
         <v>-1</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -2749,7 +2749,7 @@
         <v>-2</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -3343,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -3475,7 +3475,7 @@
         <v>-1</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -3508,7 +3508,7 @@
         <v>-1</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -3574,7 +3574,7 @@
         <v>-3</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K52" s="5"/>
     </row>
@@ -3706,7 +3706,7 @@
         <v>-1</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K53" s="5"/>
     </row>
@@ -3739,7 +3739,7 @@
         <v>-2</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K54" s="5"/>
     </row>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K55" s="5"/>
     </row>
@@ -3805,7 +3805,7 @@
         <v>-6</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K56" s="5"/>
     </row>
@@ -3838,7 +3838,7 @@
         <v>-4</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K57" s="5"/>
     </row>
@@ -3871,7 +3871,7 @@
         <v>-4</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -3904,7 +3904,7 @@
         <v>-3</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K59" s="5"/>
     </row>
@@ -3937,7 +3937,7 @@
         <v>-2</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -3970,7 +3970,7 @@
         <v>-2</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K61" s="5"/>
     </row>
@@ -4003,7 +4003,7 @@
         <v>-1</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K62" s="5"/>
     </row>
@@ -4036,7 +4036,7 @@
         <v>-2</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -4069,7 +4069,7 @@
         <v>-0.9</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K65" s="5"/>
     </row>
@@ -4135,7 +4135,7 @@
         <v>-2</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K66" s="5"/>
     </row>
@@ -4168,7 +4168,7 @@
         <v>-2</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K67" s="5"/>
     </row>
@@ -4201,7 +4201,7 @@
         <v>-2</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K68" s="5"/>
     </row>
@@ -4234,7 +4234,7 @@
         <v>-1</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K69" s="5"/>
     </row>
@@ -4267,7 +4267,7 @@
         <v>-3</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -4300,7 +4300,7 @@
         <v>-2</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -4333,7 +4333,7 @@
         <v>-2</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K72" s="5"/>
     </row>
@@ -4366,7 +4366,7 @@
         <v>-1</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K73" s="5"/>
     </row>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -4432,7 +4432,7 @@
         <v>-1</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K75" s="5"/>
     </row>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -4498,7 +4498,7 @@
         <v>0.1</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K77" s="5"/>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.9</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K78" s="5"/>
     </row>
@@ -4564,7 +4564,7 @@
         <v>-2</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -4597,7 +4597,7 @@
         <v>-2</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K80" s="5"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>-1</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K81" s="5"/>
     </row>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K82" s="5"/>
     </row>
@@ -4696,7 +4696,7 @@
         <v>-0.9</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K83" s="5"/>
     </row>
@@ -4729,7 +4729,7 @@
         <v>-3</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K84" s="5"/>
     </row>
@@ -4762,7 +4762,7 @@
         <v>-3</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K85" s="5"/>
     </row>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K86" s="5"/>
     </row>
@@ -4828,7 +4828,7 @@
         <v>-1</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -4861,7 +4861,7 @@
         <v>-2</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -4894,7 +4894,7 @@
         <v>-2</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K89" s="5"/>
     </row>
@@ -4927,7 +4927,7 @@
         <v>-1</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -4960,7 +4960,7 @@
         <v>-1</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -4993,7 +4993,7 @@
         <v>-1</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K92" s="5"/>
     </row>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K95" s="5"/>
     </row>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K96" s="5"/>
     </row>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -5224,7 +5224,7 @@
         <v>-1</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K99" s="5"/>
     </row>
@@ -5257,7 +5257,7 @@
         <v>-1</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K100" s="5"/>
     </row>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K101" s="5"/>
     </row>
@@ -5323,7 +5323,7 @@
         <v>-1</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K102" s="5"/>
     </row>
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -5422,7 +5422,7 @@
         <v>-1</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K105" s="5"/>
     </row>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -5488,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K107" s="5"/>
     </row>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K108" s="5"/>
     </row>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K111" s="5"/>
     </row>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -5719,7 +5719,7 @@
         <v>-2</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K114" s="5"/>
     </row>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K115" s="5"/>
     </row>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K116" s="5"/>
     </row>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K117" s="5"/>
     </row>
@@ -5851,7 +5851,7 @@
         <v>-2</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -5884,7 +5884,7 @@
         <v>-1</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K119" s="5"/>
     </row>
@@ -5917,7 +5917,7 @@
         <v>-2.9</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -5950,7 +5950,7 @@
         <v>-4</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K121" s="5"/>
     </row>
@@ -5983,7 +5983,7 @@
         <v>-1</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -6016,7 +6016,7 @@
         <v>-1</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K123" s="5"/>
     </row>
@@ -6049,7 +6049,7 @@
         <v>-2</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -6082,7 +6082,7 @@
         <v>-1</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -6115,7 +6115,7 @@
         <v>-1</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K126" s="5"/>
     </row>
@@ -6148,7 +6148,7 @@
         <v>-1</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K127" s="5"/>
     </row>
@@ -6181,7 +6181,7 @@
         <v>-1</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K128" s="5"/>
     </row>
@@ -6214,7 +6214,7 @@
         <v>-3</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -6247,7 +6247,7 @@
         <v>-3</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -6280,7 +6280,7 @@
         <v>-3</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K131" s="5"/>
     </row>
@@ -6313,7 +6313,7 @@
         <v>-3</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K132" s="5"/>
     </row>
@@ -6346,7 +6346,7 @@
         <v>-3</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K133" s="5"/>
     </row>
@@ -6379,7 +6379,7 @@
         <v>-3</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K134" s="5"/>
     </row>
@@ -6412,7 +6412,7 @@
         <v>-3</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K136" s="5"/>
     </row>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K137" s="5"/>
     </row>
@@ -6511,7 +6511,7 @@
         <v>-0.9</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -6544,7 +6544,7 @@
         <v>-3</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -6610,19 +6610,19 @@
         <v>-1</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" s="9">
         <v>2918.3</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D142" s="9">
         <v>5.57</v>
@@ -6642,20 +6642,20 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-      <c r="J142" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K142" s="13"/>
+      <c r="J142" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K142" s="14"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" s="9">
         <v>888.88</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D143" s="9">
         <v>4.05</v>
@@ -6675,20 +6675,20 @@
       <c r="I143" s="2">
         <v>-3</v>
       </c>
-      <c r="J143" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K143" s="13"/>
+      <c r="J143" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K143" s="14"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B144" s="9">
         <v>188.22</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D144" s="9">
         <v>5.53</v>
@@ -6703,25 +6703,25 @@
         <v>-64.16</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I144" s="2">
         <v>0</v>
       </c>
-      <c r="J144" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K144" s="13"/>
+      <c r="J144" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K144" s="14"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B145" s="9">
         <v>784.95</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D145" s="9">
         <v>9.7200000000000006</v>
@@ -6736,25 +6736,25 @@
         <v>-187.98400000000001</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I145" s="2">
         <v>1</v>
       </c>
-      <c r="J145" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K145" s="13"/>
+      <c r="J145" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K145" s="14"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B146" s="9">
         <v>741.92</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D146" s="9">
         <v>5.49</v>
@@ -6769,25 +6769,25 @@
         <v>-193.136</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
       </c>
-      <c r="J146" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K146" s="13"/>
+      <c r="J146" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K146" s="14"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B147" s="9">
         <v>301.38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D147" s="9">
         <v>5.53</v>
@@ -6802,25 +6802,25 @@
         <v>-109.63800000000001</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B148" s="9">
         <v>470.65</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D148" s="9">
         <v>5.53</v>
@@ -6835,25 +6835,25 @@
         <v>-135.524</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I148" s="2">
         <v>0</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B149" s="9">
         <v>769.97</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D149" s="9">
         <v>5.49</v>
@@ -6873,20 +6873,20 @@
       <c r="I149" s="2">
         <v>0</v>
       </c>
-      <c r="J149" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K149" s="13"/>
+      <c r="J149" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K149" s="14"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B150" s="9">
         <v>871.85</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D150" s="9">
         <v>4.24</v>
@@ -6906,20 +6906,20 @@
       <c r="I150" s="2">
         <v>-2</v>
       </c>
-      <c r="J150" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K150" s="13"/>
+      <c r="J150" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K150" s="14"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B151" s="9">
         <v>1253.45</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D151" s="9">
         <v>6.74</v>
@@ -6939,20 +6939,20 @@
       <c r="I151" s="2">
         <v>0.1</v>
       </c>
-      <c r="J151" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K151" s="13"/>
+      <c r="J151" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K151" s="14"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B152" s="9">
         <v>979.17</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D152" s="9">
         <v>8.59</v>
@@ -6972,20 +6972,20 @@
       <c r="I152" s="2">
         <v>1</v>
       </c>
-      <c r="J152" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K152" s="13"/>
+      <c r="J152" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K152" s="14"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B153" s="9">
         <v>312.36</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D153" s="9">
         <v>5.53</v>
@@ -7006,19 +7006,19 @@
         <v>0</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B154" s="9">
         <v>459.54</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D154" s="9">
         <v>5.53</v>
@@ -7038,20 +7038,20 @@
       <c r="I154" s="2">
         <v>0</v>
       </c>
-      <c r="J154" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K154" s="13"/>
+      <c r="J154" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K154" s="14"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B155" s="9">
         <v>369.41</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D155" s="9">
         <v>5.53</v>
@@ -7071,20 +7071,20 @@
       <c r="I155" s="2">
         <v>0</v>
       </c>
-      <c r="J155" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K155" s="13"/>
+      <c r="J155" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K155" s="14"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="9">
         <v>1474.53</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D156" s="9">
         <v>5.84</v>
@@ -7104,20 +7104,20 @@
       <c r="I156" s="2">
         <v>0</v>
       </c>
-      <c r="J156" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K156" s="13"/>
+      <c r="J156" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K156" s="14"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" s="9">
         <v>317.38</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D157" s="9">
         <v>5.53</v>
@@ -7138,19 +7138,19 @@
         <v>0</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="9">
         <v>390.44</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D158" s="9">
         <v>5.53</v>
@@ -7165,25 +7165,25 @@
         <v>-178.048</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I158" s="2">
         <v>0</v>
       </c>
-      <c r="J158" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K158" s="13"/>
+      <c r="J158" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K158" s="14"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B159" s="9">
         <v>626.74</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D159" s="9">
         <v>5.95</v>
@@ -7198,25 +7198,25 @@
         <v>-202.37700000000001</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I159" s="2">
         <v>0</v>
       </c>
-      <c r="J159" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K159" s="13"/>
+      <c r="J159" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K159" s="14"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B160" s="9">
         <v>723.86</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D160" s="9">
         <v>5.95</v>
@@ -7231,25 +7231,25 @@
         <v>-213.059</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I160" s="2">
         <v>0</v>
       </c>
-      <c r="J160" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K160" s="13"/>
+      <c r="J160" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" s="14"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" s="9">
         <v>238.24</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D161" s="9">
         <v>5.52</v>
@@ -7269,20 +7269,20 @@
       <c r="I161" s="8">
         <v>0</v>
       </c>
-      <c r="J161" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K161" s="13"/>
+      <c r="J161" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K161" s="14"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B162" s="9">
         <v>295.29000000000002</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D162" s="9">
         <v>5.52</v>
@@ -7303,19 +7303,19 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B163" s="9">
         <v>279.29000000000002</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D163" s="9">
         <v>5.53</v>
@@ -7335,20 +7335,20 @@
       <c r="I163" s="2">
         <v>0</v>
       </c>
-      <c r="J163" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K163" s="13"/>
+      <c r="J163" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K163" s="14"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B164" s="9">
         <v>456.53</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D164" s="9">
         <v>5.95</v>
@@ -7363,25 +7363,25 @@
         <v>-172.65899999999999</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I164" s="2">
         <v>0</v>
       </c>
-      <c r="J164" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K164" s="13"/>
+      <c r="J164" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K164" s="14"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B165" s="9">
         <v>269.3</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D165" s="9">
         <v>5.95</v>
@@ -7396,25 +7396,25 @@
         <v>-103.926</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I165" s="2">
         <v>0</v>
       </c>
-      <c r="J165" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K165" s="13"/>
+      <c r="J165" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K165" s="14"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B166" s="9">
         <v>480.51</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D166" s="9">
         <v>5.95</v>
@@ -7429,25 +7429,25 @@
         <v>-143.345</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I166" s="2">
         <v>0</v>
       </c>
-      <c r="J166" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K166" s="13"/>
+      <c r="J166" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K166" s="14"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B167" s="9">
         <v>479.57</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D167" s="9">
         <v>5.95</v>
@@ -7462,25 +7462,25 @@
         <v>-146.86099999999999</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I167" s="2">
         <v>0</v>
       </c>
-      <c r="J167" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K167" s="13"/>
+      <c r="J167" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K167" s="14"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B168" s="9">
         <v>409.48</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D168" s="9">
         <v>5.53</v>
@@ -7495,25 +7495,25 @@
         <v>-154.64400000000001</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I168" s="2">
         <v>0</v>
       </c>
-      <c r="J168" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K168" s="13"/>
+      <c r="J168" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K168" s="14"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B169" s="9">
         <v>328.37</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D169" s="9">
         <v>10.18</v>
@@ -7528,25 +7528,25 @@
         <v>-118.71899999999999</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I169" s="2">
         <v>1</v>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K169" s="13"/>
+      <c r="J169" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K169" s="14"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B170" s="9">
         <v>1781.1</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D170" s="9">
         <v>8.75</v>
@@ -7566,20 +7566,20 @@
       <c r="I170" s="2">
         <v>1</v>
       </c>
-      <c r="J170" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K170" s="13"/>
+      <c r="J170" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K170" s="14"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B171" s="9">
         <v>228.29</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D171" s="9">
         <v>5.95</v>
@@ -7594,25 +7594,25 @@
         <v>-102.569</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I171" s="2">
         <v>0</v>
       </c>
-      <c r="J171" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K171" s="13"/>
+      <c r="J171" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K171" s="14"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" s="9">
         <v>328.36</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D172" s="9">
         <v>5.52</v>
@@ -7627,25 +7627,25 @@
         <v>-154.49299999999999</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I172" s="2">
         <v>0</v>
       </c>
-      <c r="J172" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K172" s="13"/>
+      <c r="J172" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K172" s="14"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" s="9">
         <v>359.42</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D173" s="9">
         <v>5.95</v>
@@ -7660,25 +7660,25 @@
         <v>-144.39599999999999</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I173" s="2">
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" s="9">
         <v>1460.8</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D174" s="9">
         <v>10.18</v>
@@ -7693,25 +7693,25 @@
         <v>-240.34</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I174" s="2">
         <v>1</v>
       </c>
-      <c r="J174" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K174" s="13"/>
+      <c r="J174" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K174" s="14"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B175" s="9">
         <v>279.29000000000002</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D175" s="9">
         <v>5.53</v>
@@ -7731,20 +7731,20 @@
       <c r="I175" s="2">
         <v>0</v>
       </c>
-      <c r="J175" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K175" s="13"/>
+      <c r="J175" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K175" s="14"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B176" s="9">
         <v>278.3</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D176" s="9">
         <v>5.95</v>
@@ -7759,25 +7759,25 @@
         <v>-130.85400000000001</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I176" s="2">
         <v>0</v>
       </c>
-      <c r="J176" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K176" s="13"/>
+      <c r="J176" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K176" s="14"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" s="9">
         <v>1017.09</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D177" s="9">
         <v>5.53</v>
@@ -7792,25 +7792,25 @@
         <v>-200.26599999999999</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I177" s="2">
         <v>0</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" s="9">
         <v>245.28</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D178" s="9">
         <v>5.53</v>
@@ -7825,25 +7825,25 @@
         <v>-85.159000000000006</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
       </c>
-      <c r="J178" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K178" s="13"/>
+      <c r="J178" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K178" s="14"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B179" s="9">
         <v>302.33</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D179" s="9">
         <v>5.53</v>
@@ -7858,25 +7858,25 @@
         <v>-103.86799999999999</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B180" s="9">
         <v>1013.15</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D180" s="9">
         <v>9.75</v>
@@ -7891,25 +7891,25 @@
         <v>-237.572</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I180" s="2">
         <v>1</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B181" s="9">
         <v>321.37</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D181" s="9">
         <v>9.75</v>
@@ -7929,20 +7929,20 @@
       <c r="I181" s="2">
         <v>1</v>
       </c>
-      <c r="J181" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K181" s="13"/>
+      <c r="J181" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K181" s="14"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B182" s="9">
         <v>429.51</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D182" s="9">
         <v>5.53</v>
@@ -7957,25 +7957,25 @@
         <v>-110.67700000000001</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I182" s="2">
         <v>0</v>
       </c>
-      <c r="J182" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K182" s="13"/>
+      <c r="J182" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K182" s="14"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B183" s="9">
         <v>784.95</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D183" s="9">
         <v>9.75</v>
@@ -7990,25 +7990,25 @@
         <v>-203.58199999999999</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I183" s="2">
         <v>1</v>
       </c>
-      <c r="J183" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K183" s="13"/>
+      <c r="J183" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K183" s="14"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B184" s="9">
         <v>572.66</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D184" s="9">
         <v>9.75</v>
@@ -8023,25 +8023,25 @@
         <v>-183.589</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I184" s="2">
         <v>1</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B185" s="9">
         <v>877.9</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D185" s="9">
         <v>4.3499999999999996</v>
@@ -8061,20 +8061,20 @@
       <c r="I185" s="8">
         <v>-1.9</v>
       </c>
-      <c r="J185" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K185" s="13"/>
+      <c r="J185" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K185" s="14"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B186" s="9">
         <v>686.76</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D186" s="9">
         <v>9.75</v>
@@ -8089,25 +8089,25 @@
         <v>-188.78700000000001</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I186" s="2">
         <v>1</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B187" s="9">
         <v>642.79</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D187" s="9">
         <v>5.53</v>
@@ -8127,20 +8127,20 @@
       <c r="I187" s="2">
         <v>0</v>
       </c>
-      <c r="J187" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K187" s="13"/>
+      <c r="J187" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K187" s="14"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B188" s="9">
         <v>628.76</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D188" s="9">
         <v>5.53</v>
@@ -8160,20 +8160,20 @@
       <c r="I188" s="2">
         <v>0</v>
       </c>
-      <c r="J188" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K188" s="13"/>
+      <c r="J188" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K188" s="14"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189" s="9">
         <v>628.76</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D189" s="9">
         <v>5.53</v>
@@ -8188,25 +8188,25 @@
         <v>-176.905</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I189" s="8">
         <v>0</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B190" s="9">
         <v>776.88</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D190" s="9">
         <v>9.75</v>
@@ -8221,25 +8221,25 @@
         <v>-198.74199999999999</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I190" s="2">
         <v>1</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B191" s="9">
         <v>686.76</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D191" s="9">
         <v>9.75</v>
@@ -8254,25 +8254,25 @@
         <v>-188.90100000000001</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I191" s="2">
         <v>1</v>
       </c>
-      <c r="J191" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K191" s="13"/>
+      <c r="J191" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K191" s="14"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B192" s="9">
         <v>686.76</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D192" s="9">
         <v>9.75</v>
@@ -8287,25 +8287,25 @@
         <v>-174.65799999999999</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I192" s="2">
         <v>1</v>
       </c>
-      <c r="J192" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K192" s="13"/>
+      <c r="J192" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K192" s="14"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B193" s="9">
         <v>174.2</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D193" s="9">
         <v>5.53</v>
@@ -8320,25 +8320,25 @@
         <v>-56.779000000000003</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I193" s="2">
         <v>0</v>
       </c>
-      <c r="J193" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K193" s="13"/>
+      <c r="J193" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K193" s="14"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B194" s="9">
         <v>638.72</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D194" s="9">
         <v>9.75</v>
@@ -8353,25 +8353,25 @@
         <v>-161.34100000000001</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I194" s="2">
         <v>1</v>
       </c>
-      <c r="J194" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K194" s="13"/>
+      <c r="J194" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K194" s="14"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B195" s="9">
         <v>238.24</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D195" s="9">
         <v>5.52</v>
@@ -8391,20 +8391,20 @@
       <c r="I195" s="2">
         <v>0</v>
       </c>
-      <c r="J195" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K195" s="13"/>
+      <c r="J195" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K195" s="14"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B196" s="9">
         <v>202.25</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D196" s="9">
         <v>5.53</v>
@@ -8419,25 +8419,25 @@
         <v>-62.500999999999998</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I196" s="2">
         <v>0</v>
       </c>
-      <c r="J196" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K196" s="13"/>
+      <c r="J196" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K196" s="14"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B197" s="9">
         <v>679.77</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D197" s="9">
         <v>9.75</v>
@@ -8452,25 +8452,25 @@
         <v>-204.36699999999999</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I197" s="2">
         <v>1</v>
       </c>
-      <c r="J197" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K197" s="13"/>
+      <c r="J197" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K197" s="14"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B198" s="9">
         <v>721.85</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D198" s="9">
         <v>12</v>
@@ -8490,20 +8490,20 @@
       <c r="I198" s="2">
         <v>2</v>
       </c>
-      <c r="J198" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K198" s="13"/>
+      <c r="J198" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K198" s="14"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B199" s="9">
         <v>907.07</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D199" s="9">
         <v>9.75</v>
@@ -8518,25 +8518,25 @@
         <v>-253.10599999999999</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I199" s="2">
         <v>1</v>
       </c>
-      <c r="J199" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K199" s="13"/>
+      <c r="J199" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K199" s="14"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B200" s="9">
         <v>218.25</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D200" s="9">
         <v>5.53</v>
@@ -8551,25 +8551,25 @@
         <v>-63.613999999999997</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I200" s="2">
         <v>0</v>
       </c>
-      <c r="J200" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K200" s="13"/>
+      <c r="J200" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K200" s="14"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B201" s="9">
         <v>369.41</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D201" s="9">
         <v>5.53</v>
@@ -8589,20 +8589,20 @@
       <c r="I201" s="2">
         <v>0</v>
       </c>
-      <c r="J201" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K201" s="13"/>
+      <c r="J201" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K201" s="14"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B202" s="9">
         <v>1003.15</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D202" s="9">
         <v>5.49</v>
@@ -8617,25 +8617,25 @@
         <v>-229.78100000000001</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I202" s="2">
         <v>0</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B203" s="9">
         <v>473.52</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D203" s="9">
         <v>4.05</v>
@@ -8655,20 +8655,20 @@
       <c r="I203" s="2">
         <v>-1</v>
       </c>
-      <c r="J203" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K203" s="13"/>
+      <c r="J203" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K203" s="14"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B204" s="9">
         <v>899.04</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D204" s="9">
         <v>8.59</v>
@@ -8688,20 +8688,20 @@
       <c r="I204" s="2">
         <v>1</v>
       </c>
-      <c r="J204" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K204" s="13"/>
+      <c r="J204" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K204" s="14"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B205" s="9">
         <v>264.32</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D205" s="9">
         <v>5.53</v>
@@ -8716,25 +8716,25 @@
         <v>-110.46599999999999</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I205" s="2">
         <v>0</v>
       </c>
-      <c r="J205" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K205" s="13"/>
+      <c r="J205" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K205" s="14"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B206" s="9">
         <v>1551.87</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D206" s="9">
         <v>12</v>
@@ -8749,25 +8749,25 @@
         <v>-256.43</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I206" s="2">
         <v>2</v>
       </c>
-      <c r="J206" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K206" s="13"/>
+      <c r="J206" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K206" s="14"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B207" s="9">
         <v>565.66</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D207" s="9">
         <v>9.75</v>
@@ -8782,25 +8782,25 @@
         <v>-180.501</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I207" s="8">
         <v>1</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B208" s="9">
         <v>328.37</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D208" s="9">
         <v>9.75</v>
@@ -8815,25 +8815,25 @@
         <v>-117.756</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I208" s="2">
         <v>1</v>
       </c>
-      <c r="J208" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K208" s="13"/>
+      <c r="J208" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K208" s="14"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B209" s="9">
         <v>426.47</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D209" s="9">
         <v>5.53</v>
@@ -8848,25 +8848,25 @@
         <v>-158.81100000000001</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I209" s="2">
         <v>0</v>
       </c>
-      <c r="J209" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K209" s="13"/>
+      <c r="J209" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K209" s="14"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B210" s="9">
         <v>679.77</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D210" s="9">
         <v>9.75</v>
@@ -8881,25 +8881,25 @@
         <v>-204.875</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I210" s="2">
         <v>1</v>
       </c>
-      <c r="J210" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K210" s="13"/>
+      <c r="J210" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K210" s="14"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B211" s="9">
         <v>2270.54</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D211" s="9">
         <v>6.74</v>
@@ -8914,25 +8914,25 @@
         <v>-241.214</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I211" s="8">
         <v>0.1</v>
       </c>
-      <c r="J211" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K211" s="13"/>
+      <c r="J211" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K211" s="14"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B212" s="9">
         <v>879.1</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D212" s="9">
         <v>11</v>
@@ -8947,25 +8947,25 @@
         <v>-177.87200000000001</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I212" s="2">
         <v>2</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B213" s="9">
         <v>784.95</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D213" s="9">
         <v>9.75</v>
@@ -8980,25 +8980,25 @@
         <v>-190.44</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I213" s="2">
         <v>1</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B214" s="9">
         <v>371.48</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D214" s="9">
         <v>10</v>
@@ -9013,25 +9013,25 @@
         <v>-99.596000000000004</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I214" s="2">
         <v>2</v>
       </c>
-      <c r="J214" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K214" s="13"/>
+      <c r="J214" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K214" s="14"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B215" s="9">
         <v>377.48</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D215" s="9">
         <v>5.53</v>
@@ -9046,25 +9046,25 @@
         <v>-136.83600000000001</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I215" s="2">
         <v>0</v>
       </c>
-      <c r="J215" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K215" s="13"/>
+      <c r="J215" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K215" s="14"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B216" s="9">
         <v>1351.61</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D216" s="9">
         <v>5.75</v>
@@ -9079,25 +9079,25 @@
         <v>-252.68899999999999</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I216" s="2">
         <v>0</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B217" s="9">
         <v>188.22</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D217" s="9">
         <v>5.57</v>
@@ -9112,25 +9112,25 @@
         <v>-61.072000000000003</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I217" s="2">
         <v>0</v>
       </c>
-      <c r="J217" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K217" s="13"/>
+      <c r="J217" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K217" s="14"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B218" s="9">
         <v>1395.51</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D218" s="9">
         <v>4.05</v>
@@ -9145,25 +9145,25 @@
         <v>-220.30600000000001</v>
       </c>
       <c r="H218" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I218" s="8">
         <v>-1</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B219" s="9">
         <v>202.25</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D219" s="9">
         <v>5.57</v>
@@ -9178,25 +9178,25 @@
         <v>-65.063000000000002</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I219" s="2">
         <v>0</v>
       </c>
-      <c r="J219" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K219" s="13"/>
+      <c r="J219" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K219" s="14"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B220" s="9">
         <v>580.72</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D220" s="9">
         <v>5.95</v>
@@ -9211,25 +9211,25 @@
         <v>-164.923</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I220" s="2">
         <v>0</v>
       </c>
-      <c r="J220" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K220" s="13"/>
+      <c r="J220" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K220" s="14"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B221" s="9">
         <v>261.27999999999997</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D221" s="9">
         <v>5.53</v>
@@ -9244,25 +9244,25 @@
         <v>-123.328</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I221" s="2">
         <v>0</v>
       </c>
       <c r="J221" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B222" s="9">
         <v>880.04</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D222" s="9">
         <v>6</v>
@@ -9277,25 +9277,25 @@
         <v>-176.32400000000001</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I222" s="2">
         <v>0</v>
       </c>
-      <c r="J222" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K222" s="13"/>
+      <c r="J222" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K222" s="14"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B223" s="9">
         <v>1267.47</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D223" s="9">
         <v>6</v>
@@ -9310,25 +9310,25 @@
         <v>-225.91399999999999</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I223" s="2">
         <v>0</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B224" s="9">
         <v>377.48</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D224" s="9">
         <v>5.49</v>
@@ -9343,25 +9343,25 @@
         <v>-128.69999999999999</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I224" s="2">
         <v>0</v>
       </c>
-      <c r="J224" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K224" s="13"/>
+      <c r="J224" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K224" s="14"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B225" s="9">
         <v>401.41</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D225" s="9">
         <v>5.52</v>
@@ -9381,20 +9381,20 @@
       <c r="I225" s="2">
         <v>0</v>
       </c>
-      <c r="J225" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K225" s="13"/>
+      <c r="J225" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K225" s="14"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B226" s="9">
         <v>867</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D226" s="9">
         <v>9.75</v>
@@ -9409,25 +9409,25 @@
         <v>-231.63300000000001</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I226" s="2">
         <v>1</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B227" s="9">
         <v>1667.95</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D227" s="9">
         <v>8.75</v>
@@ -9448,19 +9448,19 @@
         <v>1</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B228" s="9">
         <v>995.21</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D228" s="9">
         <v>5.49</v>
@@ -9480,20 +9480,20 @@
       <c r="I228" s="2">
         <v>0</v>
       </c>
-      <c r="J228" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K228" s="13"/>
+      <c r="J228" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K228" s="14"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B229" s="9">
         <v>601.69000000000005</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D229" s="9">
         <v>5.53</v>
@@ -9513,20 +9513,20 @@
       <c r="I229" s="2">
         <v>0</v>
       </c>
-      <c r="J229" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K229" s="13"/>
+      <c r="J229" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K229" s="14"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B230" s="9">
         <v>684.87</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D230" s="9">
         <v>5.95</v>
@@ -9541,25 +9541,25 @@
         <v>-200.17099999999999</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I230" s="2">
         <v>0</v>
       </c>
-      <c r="J230" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K230" s="13"/>
+      <c r="J230" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K230" s="14"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B231" s="9">
         <v>188.22</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D231" s="9">
         <v>5.53</v>
@@ -9574,25 +9574,25 @@
         <v>-59.737000000000002</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B232" s="9">
         <v>295.29000000000002</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D232" s="9">
         <v>5.52</v>
@@ -9613,19 +9613,19 @@
         <v>0</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B233" s="9">
         <v>833.93</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D233" s="9">
         <v>9.75</v>
@@ -9640,25 +9640,25 @@
         <v>-208.07900000000001</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I233" s="2">
         <v>1</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B234" s="9">
         <v>301.38</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D234" s="9">
         <v>5.53</v>
@@ -9673,25 +9673,25 @@
         <v>-112.31399999999999</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I234" s="2">
         <v>0</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B235" s="9">
         <v>301.33999999999997</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D235" s="9">
         <v>5.53</v>
@@ -9706,25 +9706,25 @@
         <v>-127.05200000000001</v>
       </c>
       <c r="H235" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B236" s="9">
         <v>525.6</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D236" s="9">
         <v>9.75</v>
@@ -9739,25 +9739,25 @@
         <v>-183.26</v>
       </c>
       <c r="H236" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I236" s="2">
         <v>1</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B237" s="9">
         <v>636.76</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D237" s="9">
         <v>5.52</v>
@@ -9772,25 +9772,25 @@
         <v>-189.411</v>
       </c>
       <c r="H237" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I237" s="2">
         <v>0</v>
       </c>
-      <c r="J237" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K237" s="13"/>
+      <c r="J237" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K237" s="14"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B238" s="9">
         <v>244.33</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D238" s="9">
         <v>5.53</v>
@@ -9805,25 +9805,25 @@
         <v>-85.619</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
       </c>
-      <c r="J238" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K238" s="13"/>
+      <c r="J238" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K238" s="14"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B239" s="9">
         <v>351.4</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D239" s="9">
         <v>5.53</v>
@@ -9838,25 +9838,25 @@
         <v>-162.066</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I239" s="2">
         <v>0</v>
       </c>
-      <c r="J239" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K239" s="13"/>
+      <c r="J239" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K239" s="14"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B240" s="9">
         <v>262.3</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D240" s="9">
         <v>5.95</v>
@@ -9871,25 +9871,25 @@
         <v>-132.48699999999999</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
       </c>
-      <c r="J240" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K240" s="13"/>
+      <c r="J240" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K240" s="14"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B241" s="9">
         <v>818.96</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D241" s="9">
         <v>12</v>
@@ -9904,25 +9904,25 @@
         <v>-221.11799999999999</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I241" s="2">
         <v>2</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B242" s="9">
         <v>401.41</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D242" s="9">
         <v>5.52</v>
@@ -9943,19 +9943,19 @@
         <v>0</v>
       </c>
       <c r="J242" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" s="9">
         <v>486.57</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D243" s="9">
         <v>12</v>
@@ -9970,25 +9970,25 @@
         <v>-155.48400000000001</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I243" s="2">
         <v>3</v>
       </c>
       <c r="J243" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" s="9">
         <v>172.18</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D244" s="9">
         <v>5.53</v>
@@ -10003,25 +10003,25 @@
         <v>-52.948</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I244" s="2">
         <v>0</v>
       </c>
       <c r="J244" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B245" s="9">
         <v>400.52</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D245" s="9">
         <v>9.75</v>
@@ -10036,25 +10036,25 @@
         <v>-131.113</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I245" s="8">
         <v>1</v>
       </c>
-      <c r="J245" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K245" s="13"/>
+      <c r="J245" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K245" s="14"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B246" s="9">
         <v>245.28</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D246" s="9">
         <v>5.53</v>
@@ -10069,25 +10069,25 @@
         <v>-86.274000000000001</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I246" s="2">
         <v>0</v>
       </c>
       <c r="J246" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B247" s="9">
         <v>524.62</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D247" s="9">
         <v>12</v>
@@ -10102,25 +10102,25 @@
         <v>-147.726</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I247" s="8">
         <v>2</v>
       </c>
-      <c r="J247" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K247" s="13"/>
+      <c r="J247" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K247" s="14"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B248" s="9">
         <v>1063.25</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D248" s="9">
         <v>12</v>
@@ -10135,25 +10135,25 @@
         <v>-231.04599999999999</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I248" s="2">
         <v>2</v>
       </c>
-      <c r="J248" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K248" s="13"/>
+      <c r="J248" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K248" s="14"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B249" s="9">
         <v>704.77</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D249" s="9">
         <v>5.53</v>
@@ -10168,25 +10168,25 @@
         <v>-179.26</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I249" s="2">
         <v>0</v>
       </c>
-      <c r="J249" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K249" s="13"/>
+      <c r="J249" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K249" s="14"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B250" s="9">
         <v>475.54</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D250" s="9">
         <v>9.75</v>
@@ -10201,25 +10201,25 @@
         <v>-159.44200000000001</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I250" s="2">
         <v>1</v>
       </c>
-      <c r="J250" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K250" s="13"/>
+      <c r="J250" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K250" s="14"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B251" s="9">
         <v>228.29</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D251" s="9">
         <v>5.53</v>
@@ -10234,25 +10234,25 @@
         <v>-71.183000000000007</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I251" s="2">
         <v>0</v>
       </c>
-      <c r="J251" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K251" s="13"/>
+      <c r="J251" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K251" s="14"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B252" s="9">
         <v>1341.3</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D252" s="9">
         <v>4.4800000000000004</v>
@@ -10267,25 +10267,25 @@
         <v>-163.65100000000001</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I252" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="J252" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K252" s="13"/>
+        <v>336</v>
+      </c>
+      <c r="J252" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K252" s="14"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B253" s="9">
         <v>571.71</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D253" s="9">
         <v>5.95</v>
@@ -10300,25 +10300,25 @@
         <v>-180.464</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I253" s="2">
         <v>0</v>
       </c>
-      <c r="J253" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K253" s="13"/>
+      <c r="J253" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K253" s="14"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B254" s="9">
         <v>315.41000000000003</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D254" s="9">
         <v>5.49</v>
@@ -10333,25 +10333,25 @@
         <v>-111.369</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I254" s="2">
         <v>0</v>
       </c>
-      <c r="J254" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K254" s="13"/>
+      <c r="J254" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K254" s="14"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B255" s="9">
         <v>186.21</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D255" s="9">
         <v>5.95</v>
@@ -10366,25 +10366,25 @@
         <v>-77.402000000000001</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I255" s="2">
         <v>0</v>
       </c>
-      <c r="J255" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K255" s="13"/>
+      <c r="J255" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K255" s="14"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B256" s="5">
         <v>737.75</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D256" s="5">
         <v>4.24</v>
@@ -10399,25 +10399,25 @@
         <v>-164.14500000000001</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I256" s="8">
         <v>-2</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B257" s="5">
         <v>1230.28</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D257" s="5">
         <v>5.32</v>
@@ -10432,25 +10432,25 @@
         <v>-184.077</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I257" s="8">
         <v>-0.9</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B258" s="5">
         <v>843.88</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D258" s="5">
         <v>6</v>
@@ -10465,25 +10465,25 @@
         <v>-155.607</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I258" s="2">
         <v>0</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B259" s="5">
         <v>1075.28</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D259" s="5">
         <v>5.9</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B260" s="5">
         <v>220.29</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D260" s="5">
         <v>5.57</v>
@@ -10537,19 +10537,19 @@
         <v>0</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B261" s="5">
         <v>859.89</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D261" s="5">
         <v>9.6</v>
@@ -10564,25 +10564,25 @@
         <v>-183.41399999999999</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I261" s="8">
         <v>1</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B262" s="5">
         <v>266.29000000000002</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D262" s="5">
         <v>5.18</v>
@@ -10597,25 +10597,25 @@
         <v>-106.538</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I262" s="2">
         <v>0</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B263" s="5">
         <v>739.81</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D263" s="5">
         <v>5.52</v>
@@ -10630,25 +10630,25 @@
         <v>-196.85900000000001</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B264" s="5">
         <v>840.02</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D264" s="5">
         <v>6</v>
@@ -10663,25 +10663,25 @@
         <v>-155.029</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I264" s="2">
         <v>0</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B265" s="5">
         <v>1055.18</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D265" s="5">
         <v>6</v>
@@ -10696,25 +10696,25 @@
         <v>-238.49199999999999</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I265" s="2">
         <v>0</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B266" s="5">
         <v>1058.2</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D266" s="5">
         <v>12</v>
@@ -10729,25 +10729,25 @@
         <v>-220.458</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I266" s="2">
         <v>3</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B267" s="5">
         <v>856.92</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D267" s="5">
         <v>4.05</v>
@@ -10762,25 +10762,25 @@
         <v>-133.30199999999999</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I267" s="2">
         <v>-1</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B268" s="5">
         <v>872.06</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D268" s="5">
         <v>6.14</v>
@@ -10801,19 +10801,19 @@
         <v>0</v>
       </c>
       <c r="J268" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B269" s="5">
         <v>105.09</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D269" s="5">
         <v>5.24</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B270" s="5">
         <v>119.12</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D270" s="5">
         <v>5.18</v>
@@ -10867,19 +10867,19 @@
         <v>0</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B271" s="5">
         <v>75.069999999999993</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D271" s="5">
         <v>5.53</v>
@@ -10894,25 +10894,25 @@
         <v>-135.46600000000001</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I271" s="2">
         <v>0</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B272" s="5">
         <v>89.09</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D272" s="5">
         <v>5.57</v>
@@ -10927,25 +10927,25 @@
         <v>-178.048</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I272" s="2">
         <v>0</v>
       </c>
       <c r="J272" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B273" s="5">
         <v>319.36</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D273" s="5">
         <v>5.53</v>
@@ -10960,25 +10960,25 @@
         <v>-202.37700000000001</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I273" s="8">
         <v>0</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B274" s="5">
         <v>160.16999999999999</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D274" s="5">
         <v>5.57</v>
@@ -10993,25 +10993,25 @@
         <v>-213.059</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I274" s="8">
         <v>0</v>
       </c>
       <c r="J274" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B275" s="5">
         <v>203.2</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D275" s="5">
         <v>5.57</v>
@@ -11032,19 +11032,19 @@
         <v>0</v>
       </c>
       <c r="J275" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B276" s="5">
         <v>203.2</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D276" s="5">
         <v>5.53</v>
@@ -11065,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B277" s="5">
         <v>203.2</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D277" s="5">
         <v>5.53</v>
@@ -11098,19 +11098,19 @@
         <v>0</v>
       </c>
       <c r="J277" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B278" s="5">
         <v>217.22</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D278" s="5">
         <v>5.57</v>
@@ -11131,19 +11131,19 @@
         <v>0</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B279" s="5">
         <v>217.22</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D279" s="5">
         <v>5.57</v>
@@ -11164,19 +11164,19 @@
         <v>0</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B280" s="5">
         <v>217.22</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D280" s="5">
         <v>5.53</v>
@@ -11197,19 +11197,19 @@
         <v>0</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B281" s="5">
         <v>231.25</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D281" s="5">
         <v>5.57</v>
@@ -11224,25 +11224,25 @@
         <v>-146.86099999999999</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I281" s="2">
         <v>0</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B282" s="5">
         <v>273.33</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D282" s="5">
         <v>5.49</v>
@@ -11257,25 +11257,25 @@
         <v>-154.64400000000001</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I282" s="2">
         <v>0</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B283" s="5">
         <v>318.33</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D283" s="5">
         <v>6.09</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -11329,19 +11329,19 @@
         <v>-1</v>
       </c>
       <c r="J284" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B285" s="5">
         <v>585.65</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D285" s="5">
         <v>4.05</v>
@@ -11362,19 +11362,19 @@
         <v>-2</v>
       </c>
       <c r="J285" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B286" s="5">
         <v>547.55999999999995</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D286" s="5">
         <v>6</v>
@@ -11395,19 +11395,19 @@
         <v>0</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B287" s="5">
         <v>925.04</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D287" s="5">
         <v>5.84</v>
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K287" s="5"/>
     </row>
@@ -11461,19 +11461,19 @@
         <v>-1</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B289" s="5">
         <v>847.87</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D289" s="5">
         <v>4.43</v>
@@ -11488,13 +11488,13 @@
         <v>-105.85299999999999</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I289" s="2">
         <v>-2</v>
       </c>
       <c r="J289" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K289" s="5"/>
     </row>
@@ -11527,19 +11527,19 @@
         <v>-2</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B291" s="5">
         <v>576.54999999999995</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D291" s="5">
         <v>4.1399999999999997</v>
@@ -11554,25 +11554,25 @@
         <v>-200.26599999999999</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I291" s="2">
         <v>-2</v>
       </c>
       <c r="J291" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B292" s="5">
         <v>333.29</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D292" s="5">
         <v>4.09</v>
@@ -11587,13 +11587,13 @@
         <v>-85.159000000000006</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I292" s="2">
         <v>-2</v>
       </c>
       <c r="J292" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -11626,19 +11626,19 @@
         <v>0</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B294" s="5">
         <v>260.29000000000002</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D294" s="5">
         <v>4.05</v>
@@ -11653,25 +11653,25 @@
         <v>-237.572</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I294" s="8">
         <v>-1</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B295" s="5">
         <v>764.78</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D295" s="5">
         <v>5.84</v>
@@ -11686,25 +11686,25 @@
         <v>-116.923</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I295" s="8">
         <v>0</v>
       </c>
       <c r="J295" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B296" s="5">
         <v>374.46</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D296" s="5">
         <v>8.25</v>
@@ -11719,25 +11719,25 @@
         <v>-110.67700000000001</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I296" s="2">
         <v>0.9</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B297" s="5">
         <v>389.4</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D297" s="5">
         <v>5.24</v>
@@ -11752,25 +11752,25 @@
         <v>-203.58199999999999</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I297" s="2">
         <v>0</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B298" s="5">
         <v>218.27</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D298" s="5">
         <v>5.91</v>
@@ -11785,25 +11785,25 @@
         <v>-183.589</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I298" s="2">
         <v>-0.1</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B299" s="5">
         <v>662.64</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D299" s="5">
         <v>4.05</v>
@@ -11818,25 +11818,25 @@
         <v>-159.922</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I299" s="2">
         <v>-3</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B300" s="5">
         <v>697.78</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D300" s="5">
         <v>4.5999999999999996</v>
@@ -11857,19 +11857,19 @@
         <v>-1</v>
       </c>
       <c r="J300" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B301" s="5">
         <v>673.76</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D301" s="5">
         <v>4.05</v>
@@ -11884,25 +11884,25 @@
         <v>-176.178</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I301" s="2">
         <v>-1</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B302" s="5">
         <v>700.7</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D302" s="5">
         <v>4.21</v>
@@ -11917,25 +11917,25 @@
         <v>-183.63499999999999</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I302" s="2">
         <v>-1</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B303" s="5">
         <v>617.65</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D303" s="5">
         <v>8.59</v>
@@ -11950,25 +11950,25 @@
         <v>-176.905</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I303" s="2">
         <v>1</v>
       </c>
       <c r="J303" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B304" s="5">
         <v>847.87</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D304" s="5">
         <v>4.21</v>
@@ -11983,25 +11983,25 @@
         <v>-198.74199999999999</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I304" s="2">
         <v>-1</v>
       </c>
       <c r="J304" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B305" s="5">
         <v>760.75</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D305" s="5">
         <v>5.52</v>
@@ -12016,25 +12016,25 @@
         <v>-188.90100000000001</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I305" s="2">
         <v>0</v>
       </c>
       <c r="J305" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B306" s="5">
         <v>774.78</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D306" s="5">
         <v>4.37</v>
@@ -12049,25 +12049,25 @@
         <v>-174.65799999999999</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I306" s="2">
         <v>-1</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B307" s="5">
         <v>972.1</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D307" s="5">
         <v>8.31</v>
@@ -12082,13 +12082,13 @@
         <v>-56.779000000000003</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I307" s="2">
         <v>1</v>
       </c>
       <c r="J307" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K307" s="5"/>
     </row>
@@ -12121,19 +12121,19 @@
         <v>-1</v>
       </c>
       <c r="J308" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B309" s="5">
         <v>964.2</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D309" s="5">
         <v>8.34</v>
@@ -12148,25 +12148,25 @@
         <v>-100.13500000000001</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I309" s="2">
         <v>1</v>
       </c>
       <c r="J309" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B310" s="5">
         <v>1050.17</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D310" s="5">
         <v>8.59</v>
@@ -12181,25 +12181,25 @@
         <v>-62.500999999999998</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I310" s="2">
         <v>1</v>
       </c>
       <c r="J310" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B311" s="5">
         <v>1209.27</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D311" s="5">
         <v>6.07</v>
@@ -12214,25 +12214,25 @@
         <v>-204.36699999999999</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I311" s="2">
         <v>0</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B312" s="5">
         <v>1314.4</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D312" s="5">
         <v>4.1399999999999997</v>
@@ -12247,25 +12247,25 @@
         <v>-217.28899999999999</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I312" s="2">
         <v>-2</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B313" s="5">
         <v>235.26</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D313" s="5">
         <v>5.52</v>
@@ -12280,25 +12280,25 @@
         <v>-253.10599999999999</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I313" s="2">
         <v>-0.1</v>
       </c>
       <c r="J313" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B314" s="5">
         <v>392.43</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D314" s="5">
         <v>6.08</v>
@@ -12313,25 +12313,25 @@
         <v>-63.613999999999997</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I314" s="2">
         <v>-0.1</v>
       </c>
       <c r="J314" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B315" s="5">
         <v>842.87</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D315" s="5">
         <v>4.05</v>
@@ -12346,25 +12346,25 @@
         <v>-138.655</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I315" s="2">
         <v>-2</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B316" s="5">
         <v>293.3</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D316" s="5">
         <v>4.05</v>
@@ -12379,25 +12379,25 @@
         <v>-229.78100000000001</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I316" s="2">
         <v>-1.1000000000000001</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B317" s="5">
         <v>1068.22</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D317" s="5">
         <v>8.26</v>
@@ -12418,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -12451,19 +12451,19 @@
         <v>0</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B319" s="5">
         <v>838.86</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D319" s="5">
         <v>4.2</v>
@@ -12478,25 +12478,25 @@
         <v>-185.042</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I319" s="2">
         <v>-1.9</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B320" s="5">
         <v>565.58000000000004</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D320" s="5">
         <v>4.37</v>
@@ -12511,25 +12511,25 @@
         <v>-140.82499999999999</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I320" s="2">
         <v>-1</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B321" s="5">
         <v>1161.3499999999999</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D321" s="5">
         <v>10</v>
@@ -12544,25 +12544,25 @@
         <v>-190.40100000000001</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I321" s="2">
         <v>2</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B322" s="5">
         <v>1131.28</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D322" s="5">
         <v>8.5</v>
@@ -12577,25 +12577,25 @@
         <v>-143.62700000000001</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I322" s="2">
         <v>1</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B323" s="5">
         <v>1549.73</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D323" s="5">
         <v>6</v>
@@ -12610,25 +12610,25 @@
         <v>-196.803</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I323" s="2">
         <v>0</v>
       </c>
       <c r="J323" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B324" s="5">
         <v>1230.3900000000001</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D324" s="5">
         <v>6</v>
@@ -12643,13 +12643,13 @@
         <v>-176.21600000000001</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I324" s="2">
         <v>0</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K324" s="5"/>
     </row>
@@ -12682,19 +12682,19 @@
         <v>0</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B326" s="5">
         <v>278.33</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D326" s="5">
         <v>4.5999999999999996</v>
@@ -12709,25 +12709,25 @@
         <v>-91.75</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I326" s="2">
         <v>-1</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B327" s="5">
         <v>218.21</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D327" s="5">
         <v>4.05</v>
@@ -12742,25 +12742,25 @@
         <v>-65.248000000000005</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I327" s="2">
         <v>-1</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B328" s="5">
         <v>343.34</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D328" s="5">
         <v>5.53</v>
@@ -12775,25 +12775,25 @@
         <v>-111.37</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I328" s="2">
         <v>0</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B329" s="5">
         <v>703.85</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D329" s="5">
         <v>5.81</v>
@@ -12814,19 +12814,19 @@
         <v>0</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B330" s="5">
         <v>723.81</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D330" s="5">
         <v>5.72</v>
@@ -12847,19 +12847,19 @@
         <v>0</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B331" s="5">
         <v>701.86</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D331" s="5">
         <v>9.6999999999999993</v>
@@ -12880,19 +12880,19 @@
         <v>2</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B332" s="5">
         <v>799.87</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D332" s="5">
         <v>5.57</v>
@@ -12913,19 +12913,19 @@
         <v>0</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B333" s="5">
         <v>1029.1099999999999</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D333" s="5">
         <v>9.6</v>
@@ -12946,19 +12946,19 @@
         <v>1</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B334" s="5">
         <v>776.86</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D334" s="5">
         <v>8.25</v>
@@ -12979,19 +12979,19 @@
         <v>0.9</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B335" s="5">
         <v>972.18</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D335" s="5">
         <v>4.05</v>
@@ -13012,19 +13012,19 @@
         <v>-1</v>
       </c>
       <c r="J335" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B336" s="5">
         <v>778.86</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D336" s="5">
         <v>9.75</v>
@@ -13045,19 +13045,19 @@
         <v>1</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B337" s="5">
         <v>834.94</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D337" s="5">
         <v>5.59</v>
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K337" s="5"/>
     </row>
@@ -13111,19 +13111,19 @@
         <v>1</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B339" s="5">
         <v>1108.25</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D339" s="5">
         <v>8.75</v>
@@ -13144,19 +13144,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J339" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B340" s="5">
         <v>976</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D340" s="5">
         <v>4.21</v>
@@ -13171,25 +13171,25 @@
         <v>-231.63300000000001</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I340" s="8">
         <v>-1</v>
       </c>
       <c r="J340" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B341" s="5">
         <v>1116.18</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D341" s="5">
         <v>6</v>
@@ -13210,19 +13210,19 @@
         <v>0</v>
       </c>
       <c r="J341" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B342" s="5">
         <v>1197.3800000000001</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D342" s="5">
         <v>5.84</v>
@@ -13237,25 +13237,25 @@
         <v>-199.22499999999999</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I342" s="2">
         <v>0</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B343" s="5">
         <v>1368.52</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D343" s="5">
         <v>6.06</v>
@@ -13270,25 +13270,25 @@
         <v>-146.53399999999999</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I343" s="5">
         <v>-0.1</v>
       </c>
       <c r="J343" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B344" s="5">
         <v>1456.66</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D344" s="5">
         <v>6.13</v>
@@ -13303,25 +13303,25 @@
         <v>-200.17099999999999</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I344" s="8">
         <v>-0.1</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B345" s="5">
         <v>579.65</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D345" s="5">
         <v>6</v>
@@ -13336,25 +13336,25 @@
         <v>-59.737000000000002</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I345" s="2">
         <v>0</v>
       </c>
       <c r="J345" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B346" s="5">
         <v>523.58000000000004</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D346" s="5">
         <v>8.7200000000000006</v>
@@ -13369,25 +13369,25 @@
         <v>-116.12</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I346" s="8">
         <v>1</v>
       </c>
       <c r="J346" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B347" s="5">
         <v>807.9</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D347" s="5">
         <v>9.99</v>
@@ -13402,25 +13402,25 @@
         <v>-208.07900000000001</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I347" s="5">
         <v>2</v>
       </c>
       <c r="J347" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B348" s="5">
         <v>936.98</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D348" s="5">
         <v>4.05</v>
@@ -13435,25 +13435,25 @@
         <v>-112.31399999999999</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I348" s="2">
         <v>-2</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B349" s="5">
         <v>922.98</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D349" s="5">
         <v>4.37</v>
@@ -13468,25 +13468,25 @@
         <v>-127.05200000000001</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I349" s="2">
         <v>-1</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B350" s="5">
         <v>1107.21</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D350" s="5">
         <v>4.37</v>
@@ -13501,25 +13501,25 @@
         <v>-183.26</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I350" s="5">
         <v>-1</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B351" s="5">
         <v>953.18</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D351" s="5">
         <v>6</v>
@@ -13534,25 +13534,25 @@
         <v>-189.411</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I351" s="2">
         <v>0</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B352" s="5">
         <v>1132.18</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D352" s="5">
         <v>6</v>
@@ -13567,25 +13567,25 @@
         <v>-85.619</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I352" s="2">
         <v>0</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B353" s="5">
         <v>293.36</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D353" s="5">
         <v>8.75</v>
@@ -13606,19 +13606,19 @@
         <v>1</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354" s="5">
         <v>319.36</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D354" s="5">
         <v>5.53</v>
@@ -13633,25 +13633,25 @@
         <v>-122.18899999999999</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I354" s="2">
         <v>0</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B355" s="9">
         <v>250.27</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D355" s="9">
         <v>4.5999999999999996</v>
@@ -13666,25 +13666,25 @@
         <v>-70.185000000000002</v>
       </c>
       <c r="H355" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I355" s="9">
         <v>-1.1000000000000001</v>
       </c>
       <c r="J355" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B356" s="9">
         <v>417.42</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D356" s="9">
         <v>5.84</v>
@@ -13699,25 +13699,25 @@
         <v>-109.694</v>
       </c>
       <c r="H356" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I356" s="9">
         <v>0</v>
       </c>
       <c r="J356" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B357" s="9">
         <v>755.82</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D357" s="9">
         <v>6.05</v>
@@ -13732,25 +13732,25 @@
         <v>-198.28399999999999</v>
       </c>
       <c r="H357" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I357" s="9">
         <v>0</v>
       </c>
       <c r="J357" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B358" s="9">
         <v>319.27</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D358" s="9">
         <v>4.05</v>
@@ -13765,13 +13765,13 @@
         <v>-87.230999999999995</v>
       </c>
       <c r="H358" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I358" s="9">
         <v>-2</v>
       </c>
       <c r="J358" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K358" s="5"/>
     </row>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="J359" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B360" s="9">
         <v>585.65</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D360" s="9">
         <v>4.05</v>
@@ -13837,19 +13837,19 @@
         <v>-2</v>
       </c>
       <c r="J360" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B361" s="9">
         <v>547.55999999999995</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D361" s="9">
         <v>6</v>
@@ -13870,19 +13870,19 @@
         <v>0</v>
       </c>
       <c r="J361" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B362" s="9">
         <v>656.72</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D362" s="9">
         <v>4.05</v>
@@ -13903,7 +13903,7 @@
         <v>-2</v>
       </c>
       <c r="J362" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K362" s="5"/>
     </row>
@@ -13936,19 +13936,19 @@
         <v>-2</v>
       </c>
       <c r="J363" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B364" s="9">
         <v>776.9</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D364" s="9">
         <v>8.59</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="J364" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -14002,19 +14002,19 @@
         <v>-0.9</v>
       </c>
       <c r="J365" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B366" s="9">
         <v>645.66</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D366" s="9">
         <v>4.37</v>
@@ -14035,19 +14035,19 @@
         <v>-1</v>
       </c>
       <c r="J366" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B367" s="9">
         <v>471.51</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D367" s="9">
         <v>8.75</v>
@@ -14068,19 +14068,19 @@
         <v>1</v>
       </c>
       <c r="J367" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B368" s="9">
         <v>716.78</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D368" s="9">
         <v>6.05</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="J368" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K368" s="5"/>
     </row>
@@ -14134,19 +14134,19 @@
         <v>0</v>
       </c>
       <c r="J369" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B370" s="9">
         <v>800.77</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D370" s="9">
         <v>4.67</v>
@@ -14167,19 +14167,19 @@
         <v>-1</v>
       </c>
       <c r="J370" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B371" s="9">
         <v>891.83</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D371" s="9">
         <v>4.05</v>
@@ -14200,19 +14200,19 @@
         <v>-4</v>
       </c>
       <c r="J371" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B372" s="9">
         <v>925.04</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D372" s="9">
         <v>5.84</v>
@@ -14233,19 +14233,19 @@
         <v>0</v>
       </c>
       <c r="J372" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B373" s="9">
         <v>1035.07</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D373" s="9">
         <v>4.32</v>
@@ -14266,19 +14266,19 @@
         <v>-2</v>
       </c>
       <c r="J373" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B374" s="9">
         <v>655.7</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D374" s="9">
         <v>10.18</v>
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -14332,7 +14332,7 @@
         <v>-2</v>
       </c>
       <c r="J375" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K375" s="5"/>
     </row>
@@ -14365,7 +14365,7 @@
         <v>-2</v>
       </c>
       <c r="J376" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -14398,19 +14398,19 @@
         <v>-2</v>
       </c>
       <c r="J377" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B378" s="9">
         <v>246.26</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D378" s="9">
         <v>4.5999999999999996</v>
@@ -14425,25 +14425,25 @@
         <v>-67.840999999999994</v>
       </c>
       <c r="H378" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I378" s="9">
         <v>-1</v>
       </c>
       <c r="J378" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B379" s="9">
         <v>232.23</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D379" s="9">
         <v>4.3</v>
@@ -14458,13 +14458,13 @@
         <v>-67.608999999999995</v>
       </c>
       <c r="H379" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I379" s="9">
         <v>-1</v>
       </c>
       <c r="J379" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K379" s="5"/>
     </row>
@@ -14497,7 +14497,7 @@
         <v>-1</v>
       </c>
       <c r="J380" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K380" s="5"/>
     </row>
@@ -14530,19 +14530,19 @@
         <v>-3</v>
       </c>
       <c r="J381" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B382" s="9">
         <v>847.87</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D382" s="9">
         <v>4.1399999999999997</v>
@@ -14557,25 +14557,25 @@
         <v>-124.871</v>
       </c>
       <c r="H382" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I382" s="9">
         <v>-2</v>
       </c>
       <c r="J382" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B383" s="9">
         <v>847.87</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D383" s="9">
         <v>4.43</v>
@@ -14590,25 +14590,25 @@
         <v>-141.65100000000001</v>
       </c>
       <c r="H383" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I383" s="9">
         <v>-2</v>
       </c>
       <c r="J383" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B384" s="9">
         <v>847.87</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D384" s="9">
         <v>4.43</v>
@@ -14623,13 +14623,13 @@
         <v>-144.62100000000001</v>
       </c>
       <c r="H384" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I384" s="9">
         <v>-2</v>
       </c>
       <c r="J384" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K384" s="5"/>
     </row>
@@ -14662,19 +14662,19 @@
         <v>-2</v>
       </c>
       <c r="J385" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B386" s="9">
         <v>576.54999999999995</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D386" s="9">
         <v>4.1399999999999997</v>
@@ -14689,25 +14689,25 @@
         <v>-100.282</v>
       </c>
       <c r="H386" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I386" s="9">
         <v>-2</v>
       </c>
       <c r="J386" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B387" s="9">
         <v>333.29</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D387" s="9">
         <v>4.09</v>
@@ -14722,25 +14722,25 @@
         <v>-84.263999999999996</v>
       </c>
       <c r="H387" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I387" s="9">
         <v>-2</v>
       </c>
       <c r="J387" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B388" s="9">
         <v>333.29</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D388" s="9">
         <v>4.05</v>
@@ -14755,13 +14755,13 @@
         <v>-84.822999999999993</v>
       </c>
       <c r="H388" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I388" s="9">
         <v>-2</v>
       </c>
       <c r="J388" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K388" s="5"/>
     </row>
@@ -14794,7 +14794,7 @@
         <v>-2</v>
       </c>
       <c r="J389" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K389" s="5"/>
     </row>
@@ -14827,19 +14827,19 @@
         <v>-1</v>
       </c>
       <c r="J390" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B391" s="9">
         <v>226.23</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D391" s="9">
         <v>6.79</v>
@@ -14854,25 +14854,25 @@
         <v>-85.588999999999999</v>
       </c>
       <c r="H391" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I391" s="9">
         <v>0.1</v>
       </c>
       <c r="J391" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B392" s="9">
         <v>260.29000000000002</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D392" s="9">
         <v>4.05</v>
@@ -14887,25 +14887,25 @@
         <v>-80.870999999999995</v>
       </c>
       <c r="H392" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I392" s="9">
         <v>-1</v>
       </c>
       <c r="J392" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B393" s="9">
         <v>764.78</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D393" s="9">
         <v>5.84</v>
@@ -14920,25 +14920,25 @@
         <v>-183.52500000000001</v>
       </c>
       <c r="H393" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I393" s="9">
         <v>0</v>
       </c>
       <c r="J393" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B394" s="9">
         <v>830.84</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D394" s="9">
         <v>5.32</v>
@@ -14953,25 +14953,25 @@
         <v>-180.67599999999999</v>
       </c>
       <c r="H394" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I394" s="9">
         <v>-0.9</v>
       </c>
       <c r="J394" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B395" s="9">
         <v>777.83</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D395" s="9">
         <v>9.6</v>
@@ -14986,25 +14986,25 @@
         <v>-194.30099999999999</v>
       </c>
       <c r="H395" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I395" s="9">
         <v>1</v>
       </c>
       <c r="J395" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B396" s="9">
         <v>725.71</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D396" s="9">
         <v>5.99</v>
@@ -15019,25 +15019,25 @@
         <v>-200.31800000000001</v>
       </c>
       <c r="H396" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I396" s="9">
         <v>-0.8</v>
       </c>
       <c r="J396" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B397" s="9">
         <v>611.61</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D397" s="9">
         <v>5.99</v>
@@ -15052,25 +15052,25 @@
         <v>-194.148</v>
       </c>
       <c r="H397" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I397" s="9">
         <v>-0.8</v>
       </c>
       <c r="J397" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B398" s="9">
         <v>702.72</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D398" s="9">
         <v>5.32</v>
@@ -15085,25 +15085,25 @@
         <v>-174.726</v>
       </c>
       <c r="H398" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I398" s="9">
         <v>-0.9</v>
       </c>
       <c r="J398" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B399" s="9">
         <v>711.72</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D399" s="9">
         <v>5.05</v>
@@ -15118,25 +15118,25 @@
         <v>-152.94900000000001</v>
       </c>
       <c r="H399" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I399" s="9">
         <v>-0.9</v>
       </c>
       <c r="J399" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B400" s="9">
         <v>275.3</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D400" s="9">
         <v>6.1</v>
@@ -15157,69 +15157,28 @@
         <v>0</v>
       </c>
       <c r="J400" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K400" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
     <mergeCell ref="J225:K225"/>
     <mergeCell ref="J228:K228"/>
     <mergeCell ref="J222:K222"/>
@@ -15227,22 +15186,63 @@
     <mergeCell ref="J217:K217"/>
     <mergeCell ref="J219:K219"/>
     <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
